--- a/data/post_valid/valid_suggested_activities.xlsx
+++ b/data/post_valid/valid_suggested_activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,123 +887,123 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>الخياطة و  تغليف مقاعد السيارات</t>
+          <t>Soudeur</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>الخياطة والتفصيل</t>
+          <t>Soudeur tig arc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>الخياطة و  تغليف مقاعد السيارات-الخياطة والتفصيل</t>
+          <t>Soudeur-Soudeur tig arc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>plateforme micro service</t>
+          <t>الخياطة و  تغليف مقاعد السيارات</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>امتلاك منصة اعمال حرة مثل فايفر هيا انك تفت منصو تعطي فلرصة لناس تمار نشاطها الداخل في كل تعامل بين عامل وعميل تاخذ ارباح او تعطي لناس باقات يشتركون فيها لكي تسمح لهم بانشاء حساب و العمل</t>
+          <t>الخياطة والتفصيل</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>plateforme micro service-امتلاك منصة اعمال حرة مثل فايفر هيا انك تفت منصو تعطي فلرصة لناس تمار نشاطها الداخل في كل تعامل بين عامل وعميل تاخذ ارباح او تعطي لناس باقات يشتركون فيها لكي تسمح لهم بانشاء حساب و العمل</t>
+          <t>الخياطة و  تغليف مقاعد السيارات-الخياطة والتفصيل</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>البناء</t>
+          <t>plateforme micro service</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>البناء</t>
+          <t>امتلاك منصة اعمال حرة مثل فايفر هيا انك تفت منصو تعطي فلرصة لناس تمار نشاطها الداخل في كل تعامل بين عامل وعميل تاخذ ارباح او تعطي لناس باقات يشتركون فيها لكي تسمح لهم بانشاء حساب و العمل</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>البناء-البناء</t>
+          <t>plateforme micro service-امتلاك منصة اعمال حرة مثل فايفر هيا انك تفت منصو تعطي فلرصة لناس تمار نشاطها الداخل في كل تعامل بين عامل وعميل تاخذ ارباح او تعطي لناس باقات يشتركون فيها لكي تسمح لهم بانشاء حساب و العمل</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>البناء</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>البناء</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>البناء-البناء</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Peintre et plaquiste</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>دهان للمنازل والعمارات ومختلف انواع الديكورات والاسقف الجبسية Ba13</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Peintre et plaquiste-دهان للمنازل والعمارات ومختلف انواع الديكورات والاسقف الجبسية Ba13</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Commerce</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Vente de tenues traditionnelles Algériennes ainsi que les bijoux et les accessoires de maison.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Commerce-Vente de tenues traditionnelles Algériennes ainsi que les bijoux et les accessoires de maison.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>تجارة</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ماركت ملابس بمواصفات عالمية</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>تجارة-ماركت ملابس بمواصفات عالمية</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>تجارة</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ماركت ملابس بمواصفات عالمية</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>تجارة-ماركت ملابس بمواصفات عالمية</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>الأشغال الصغيرة للبناء والدهن</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>كل أعمال الجبس الفنية _x000D_
 حرفي جباس _x000D_
 اعما الجبس الفنية</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>الأشغال الصغيرة للبناء والدهن-كل أعمال الجبس الفنية _x000D_
 حرفي جباس _x000D_
@@ -1033,131 +1055,109 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
         <is>
           <t>بائع مجوهرات</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>بيع وإصلاح المجوهرات الذهبية</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>بائع مجوهرات-بيع وإصلاح المجوهرات الذهبية</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>رسكلة البلاستيك</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>جمع البلاستيك واخذه إلى المصنع لاعادة تحويله</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>رسكلة البلاستيك-جمع البلاستيك واخذه إلى المصنع لاعادة تحويله</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Créer sa propre marque de parfum (e-commerce)</t>
+          <t>رسكلة البلاستيك</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Développer toutes une gamme de produits parfumés de qualité ( eau de parfum , brume pour le corps , brume de ligne .. etc )</t>
+          <t>جمع البلاستيك واخذه إلى المصنع لاعادة تحويله</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Créer sa propre marque de parfum (e-commerce)-Développer toutes une gamme de produits parfumés de qualité ( eau de parfum , brume pour le corps , brume de ligne .. etc )</t>
+          <t>رسكلة البلاستيك-جمع البلاستيك واخذه إلى المصنع لاعادة تحويله</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل</t>
+          <t>Créer sa propre marque de parfum (e-commerce)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
+          <t>Développer toutes une gamme de produits parfumés de qualité ( eau de parfum , brume pour le corps , brume de ligne .. etc )</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل-استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
+          <t>Créer sa propre marque de parfum (e-commerce)-Développer toutes une gamme de produits parfumés de qualité ( eau de parfum , brume pour le corps , brume de ligne .. etc )</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>سياحة وكالة أسفار</t>
+          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
+          <t>استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>سياحة وكالة أسفار-تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
+          <t>الترويج والتسويق و الاشهار لمنتجات الحرفيين من المنزل-استعمال وسائط التواصل الاجتماعي للاشهار والترويج و التسويق لمنتجات الحرفيين من المنزل</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>صناعة ديكورات من المنزل</t>
+          <t>سياحة وكالة أسفار</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
+          <t>تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>صناعة ديكورات من المنزل-صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
+          <t>سياحة وكالة أسفار-تنظيم الرحلات و حجز الفنادق و تذاكر الطائرات و كراء السيارات و إعداد ملفات طلب التأشيرة</t>
         </is>
       </c>
     </row>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>كلونديستان</t>
+          <t>صناعة ديكورات من المنزل</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>تقنين عمل نقل الأشخاص</t>
+          <t>صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>كلونديستان-تقنين عمل نقل الأشخاص</t>
+          <t>صناعة ديكورات من المنزل-صناعة ديكورات مختلفة الخامة والاشكال في المنزل</t>
         </is>
       </c>
     </row>
@@ -1191,78 +1191,100 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>تجارة الخردوات والعقاقير</t>
+          <t>كلونديستان</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>والعقاقير النشاط متمث في بيع الخردوات</t>
+          <t>تقنين عمل نقل الأشخاص</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>تجارة الخردوات والعقاقير-والعقاقير النشاط متمث في بيع الخردوات</t>
+          <t>كلونديستان-تقنين عمل نقل الأشخاص</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>تجارة الخردوات والعقاقير</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>والعقاقير النشاط متمث في بيع الخردوات</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>تجارة الخردوات والعقاقير-والعقاقير النشاط متمث في بيع الخردوات</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>مستشار في تسيير الموارد البشرية</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>تقديم استشارات و حلول و ايضا تكوين في _x000D_
  ميدان الموارد البشرية للمؤسسات او للمراكز التكوينية</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>مستشار في تسيير الموارد البشرية-تقديم استشارات و حلول و ايضا تكوين في _x000D_
  ميدان الموارد البشرية للمؤسسات او للمراكز التكوينية</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>روضة</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>رعاية الأطفال</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>روضة-رعاية الأطفال</t>
-        </is>
-      </c>
-    </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>روضة</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>رعاية الأطفال</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>روضة-رعاية الأطفال</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Design d'intérieur</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Bonjour,_x000D_
 _x000D_
@@ -1277,7 +1299,7 @@
 Cordialement</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Design d'intérieur-Bonjour,_x000D_
 _x000D_
@@ -1293,28 +1315,6 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Services de loisirs et de récréation</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Guide touristique et organisateur de sortie touristique</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Guide touristique et organisateur de sortie touristique-il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
-        </is>
-      </c>
-    </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
@@ -1323,94 +1323,116 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Guide touristique et organisateur de sortie touristique</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Guide touristique et organisateur de sortie touristique-il à pour mission d'organiser des randonnées journalière pour faire découvrir les beaux endroits en Algérie et de gérer un groupe</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Services de loisirs et de récréation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>تربية و تعليم ركوب الخيل</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>تربية و تعليم ركوب الخيل-ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Supports automatisés, ses accessoires et fournitures téléphoniques</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Supports automatisés, ses accessoires et fournitures téléphoniques</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Supports automatisés, ses accessoires et fournitures téléphoniques-Supports automatisés, ses accessoires et fournitures téléphoniques</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>صناعة الأثاث المنزلي</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>صاحب ورشة لصناعة الأثاث المنزلي و خاصة الأرائك</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>صناعة الأثاث المنزلي-صاحب ورشة لصناعة الأثاث المنزلي و خاصة الأرائك</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>محطة غسيل السياراة</t>
+          <t>صناعة الأثاث المنزلي</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>لم اعثر عنها  اريد الاندماج معكم</t>
+          <t>صاحب ورشة لصناعة الأثاث المنزلي و خاصة الأرائك</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>محطة غسيل السياراة-لم اعثر عنها  اريد الاندماج معكم</t>
+          <t>صناعة الأثاث المنزلي-صاحب ورشة لصناعة الأثاث المنزلي و خاصة الأرائك</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>محطة غسيل السياراة</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>لم اعثر عنها  اريد الاندماج معكم</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>محطة غسيل السياراة-لم اعثر عنها  اريد الاندماج معكم</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Conception system d'information</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>La conception et le développement de logiciels, de systèmes, de réseaux ou de bases de données_x000D_
 L’analyse et le conseil en matière de besoins, de solutions, de sécurité ou de performance informatiques_x000D_
@@ -1419,7 +1441,7 @@
 La veille technologique et l’innovation</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Conception system d'information-La conception et le développement de logiciels, de systèmes, de réseaux ou de bases de données_x000D_
 L’analyse et le conseil en matière de besoins, de solutions, de sécurité ou de performance informatiques_x000D_
@@ -1429,241 +1451,219 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
         <is>
           <t>بسكتة وحلويات ومواد الحم</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>بسكت وحلويات</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>بسكتة وحلويات ومواد الحم-بسكت وحلويات</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>maintenance bureautique</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>maintenance des imprimantes et copieur _x000D_
 maintenance informatique</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>maintenance bureautique-maintenance des imprimantes et copieur _x000D_
 maintenance informatique</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Sérigraphie</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Impression sérigraphie sur tout support tissus plastique verres bois papier.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Sérigraphie-Impression sérigraphie sur tout support tissus plastique verres bois papier.</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Paysagiste et pépinière</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Production de plantes ornementales et aménagement de jardins</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Paysagiste et pépinière-Production de plantes ornementales et aménagement de jardins</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>معالجة وتوزيع المياه</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>معالجة وتوزيع المياه</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>معالجة وتوزيع المياه-معالجة وتوزيع المياه</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>التصدير</t>
+          <t>معالجة وتوزيع المياه</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>التصدير في كل المجالات</t>
+          <t>معالجة وتوزيع المياه</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>التصدير-التصدير في كل المجالات</t>
+          <t>معالجة وتوزيع المياه-معالجة وتوزيع المياه</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>مساعد</t>
+          <t>التصدير</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>توجيهي الخدمات وتصحيحها</t>
+          <t>التصدير في كل المجالات</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>مساعد-توجيهي الخدمات وتصحيحها</t>
+          <t>التصدير-التصدير في كل المجالات</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>مساعد</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>توجيهي الخدمات وتصحيحها</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>مساعد-توجيهي الخدمات وتصحيحها</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>Services numériques et activités connexes</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Trading / التداول</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
 Merci pour votre attention.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Trading / التداول-Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
 Merci pour votre attention.</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Services numériques et activités connexes</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>مجال الاعلام الآلي بمختلف الأنواع</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
-        </is>
-      </c>
-    </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية-Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Coiffure esthétique</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية-Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
     </row>
@@ -1675,32 +1675,54 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>توصيل</t>
+          <t>Coiffure esthétique</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>توصيل طلبات مختلف الأنواع</t>
+          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>توصيل-توصيل طلبات مختلف الأنواع</t>
+          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>توصيل</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>توصيل طلبات مختلف الأنواع</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>توصيل-توصيل طلبات مختلف الأنواع</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>mécatronique</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>نشاط يشمل كل من المهارات التالية_x000D_
  الاعلام الالي _x000D_
@@ -1712,7 +1734,7 @@
 في المنازل الدكية</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>mécatronique-نشاط يشمل كل من المهارات التالية_x000D_
  الاعلام الالي _x000D_
@@ -1725,28 +1747,6 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>في المجال النفسي والتربوي والمدرسي والتعليم</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم-في المجال النفسي والتربوي والمدرسي والتعليم</t>
-        </is>
-      </c>
-    </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
@@ -1755,165 +1755,165 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية</t>
+          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Easy &amp; Speed</t>
+          <t>في المجال النفسي والتربوي والمدرسي والتعليم</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية-Easy &amp; Speed</t>
+          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم-في المجال النفسي والتربوي والمدرسي والتعليم</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>سياقة درجة نارية</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Easy &amp; Speed</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>سياقة درجة نارية-Easy &amp; Speed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>prestation de servieces et conseils aux organismes de formations</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
 une plateforme de e learning et une gestion administratives</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>prestation de servieces et conseils aux organismes de formations-Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
 une plateforme de e learning et une gestion administratives</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>خياطة</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>خياطة-مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
-        </is>
-      </c>
-    </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>خياطة</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>خياطة-مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>نجارة الاثاث</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>صناعة غرف نوم واثاث منازل</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>نجارة الاثاث-صناعة غرف نوم واثاث منازل</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Calligraphe</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Calligraphe-Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>تصليح العجلات</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>تصليح العجلات</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>تصليح العجلات-تصليح العجلات</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Propriétaire Loueur de bien immobilier</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Loueur de biens immobiliers en étant propriétaire</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Propriétaire Loueur de bien immobilier-Loueur de biens immobiliers en étant propriétaire</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>تصنيع وتحويل الرخام</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>تصنيع وتحويل الرخام</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>تصنيع وتحويل الرخام-تصنيع وتحويل الرخام</t>
         </is>
       </c>
     </row>
@@ -1925,39 +1925,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>الحجامة والتدليك</t>
+          <t>تصنيع وتحويل الرخام</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>الحجامة</t>
+          <t>تصنيع وتحويل الرخام</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>الحجامة والتدليك-الحجامة</t>
+          <t>تصنيع وتحويل الرخام-تصنيع وتحويل الرخام</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
+          <t>الحجامة والتدليك</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
+          <t>الحجامة</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
+          <t>الحجامة والتدليك-الحجامة</t>
         </is>
       </c>
     </row>
@@ -1969,17 +1969,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Travaux bâtiment_x000D_
 Travaux publics_x000D_
 Travaux maçonnerie</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie-Travaux bâtiment_x000D_
 Travaux publics_x000D_
@@ -1987,92 +2009,70 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Guide touristique</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Guide accompagnateur</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Guide touristique-Guide accompagnateur</t>
-        </is>
-      </c>
-    </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Guide touristique</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Guide accompagnateur</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Guide touristique-Guide accompagnateur</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>توصيل طلبيات الزباين</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>ضمان توصيل طلبايت الزباين</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>توصيل طلبيات الزباين-ضمان توصيل طلبايت الزباين</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
         <is>
           <t>agence de publicite</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>agence de publicite-poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>تصليح الهواتف النقالة</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>تصليح الهواتف النقالة-خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
-        </is>
-      </c>
-    </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
@@ -2081,34 +2081,56 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>تصليح الهواتف النقالة</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>تصليح الهواتف النقالة-خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>صنع الأطعمة و الأطباق المعدة</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
 أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
 أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>Contrôle et inspection CND</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Inspection et contrôler en CND niv II_x000D_
 Courant de Foucault ECT_x000D_
@@ -2122,7 +2144,7 @@
 Merci</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Contrôle et inspection CND-Inspection et contrôler en CND niv II_x000D_
 Courant de Foucault ECT_x000D_
@@ -2137,47 +2159,25 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Maintenance électricité générale</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Maintenance électricité générale-صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
-        </is>
-      </c>
-    </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Bureau d'affaire</t>
+          <t>Maintenance électricité générale</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bureau d'affaire</t>
+          <t>صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bureau d'affaire-Bureau d'affaire</t>
+          <t>Maintenance électricité générale-صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
         </is>
       </c>
     </row>
@@ -2189,39 +2189,39 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Voyage et excursions  en ligne</t>
+          <t>Bureau d'affaire</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
+          <t>Bureau d'affaire</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Voyage et excursions  en ligne-Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
+          <t>Bureau d'affaire-Bureau d'affaire</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Designer d'espace</t>
+          <t>Voyage et excursions  en ligne</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
+          <t>Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Designer d'espace-Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
+          <t>Voyage et excursions  en ligne-Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
         </is>
       </c>
     </row>
@@ -2544,44 +2544,44 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>متخصصة في القياس النفسي والتقويم التربوي</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+          <t>تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>e-commerce-Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+          <t>متخصصة في القياس النفسي والتقويم التربوي-تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>متخصصة في القياس النفسي والتقويم التربوي</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>متخصصة في القياس النفسي والتقويم التربوي-تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
+          <t>Formateur QHSE-Formateur QHSE</t>
         </is>
       </c>
     </row>
@@ -2593,17 +2593,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Formateur QHSE</t>
+          <t>Consulting</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Formateur QHSE</t>
+          <t>Consulting et creer les plans du projet autant que ingenieure des affaires</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Formateur QHSE-Formateur QHSE</t>
+          <t>Consulting-Consulting et creer les plans du projet autant que ingenieure des affaires</t>
         </is>
       </c>
     </row>
@@ -2615,39 +2615,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>تجهيز أثاث المطابخ والمحلات</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>Consulting et creer les plans du projet autant que ingenieure des affaires</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Consulting-Consulting et creer les plans du projet autant que ingenieure des affaires</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Conseil, Expertise et formation</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>تجهيز أثاث المطابخ والمحلات</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>السلام عليك هذا النشاط العصري أصبح مطلوب فالوقت الحالي  _x000D_
 فكما نرى فالتصاميم المعاصرة للمنازل والمحلات نجد الكثير من الإبداع _x000D_
 فعليه يجب تنظيم هدا النشاط</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>تجهيز أثاث المطابخ والمحلات-السلام عليك هذا النشاط العصري أصبح مطلوب فالوقت الحالي  _x000D_
 فكما نرى فالتصاميم المعاصرة للمنازل والمحلات نجد الكثير من الإبداع _x000D_
@@ -2655,159 +2633,159 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Installateur sanitaire et thermique</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Installateur en matériel de plomberie et chauffage</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Installateur sanitaire et thermique-Installateur en matériel de plomberie et chauffage</t>
+        </is>
+      </c>
+    </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Installateur sanitaire et thermique</t>
+          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Installateur en matériel de plomberie et chauffage</t>
+          <t>إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Installateur sanitaire et thermique-Installateur en matériel de plomberie et chauffage</t>
+          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع-إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع</t>
+          <t>Chef de projet construction</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
+          <t>Chef de projet construction</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع-إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
+          <t>Chef de projet construction-Chef de projet construction</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chef de projet construction</t>
+          <t>Guide touristique</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chef de projet construction</t>
+          <t>انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Chef de projet construction-Chef de projet construction</t>
+          <t>Guide touristique-انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Guide touristique</t>
+          <t>محاسبة وجباية</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
+          <t>خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Guide touristique-انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
+          <t>محاسبة وجباية-خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>محاسبة وجباية</t>
+          <t>تركيب الهوائيات المقعرة montage parabole</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+          <t>اعمال التركيب _x000D_
+وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>محاسبة وجباية-خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+          <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
+وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>تركيب الهوائيات المقعرة montage parabole</t>
+          <t>تصميم و صناعة ديكور الأفراح</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
-        <is>
-          <t>اعمال التركيب _x000D_
-وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
-وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Services de loisirs et de récréation</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>تصميم و صناعة ديكور الأفراح</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>تصميم وصناعة أكسسوارات الورد الإصطناعي _x000D_
 تصميم وصناعة المزهريات _x000D_
 صناعة الأرائك</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>تصميم و صناعة ديكور الأفراح-تصميم وصناعة أكسسوارات الورد الإصطناعي _x000D_
 تصميم وصناعة المزهريات _x000D_
@@ -2815,60 +2793,60 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Services de loisirs et de récréation</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Guide touristique</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Guide touristique rondonee et bivouac</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Guide touristique-Guide touristique rondonee et bivouac</t>
+        </is>
+      </c>
+    </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Services de loisirs et de récréation</t>
-        </is>
-      </c>
+      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Guide touristique</t>
+          <t>مكوّن نظري و تطبيقي</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
-        <is>
-          <t>Guide touristique rondonee et bivouac</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Guide touristique-Guide touristique rondonee et bivouac</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>مكوّن نظري و تطبيقي</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي-تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>-Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -2878,7 +2856,7 @@
 -Conseiller les entrepreneurs sur la gestion du centre après ouverture</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux--Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -2889,25 +2867,47 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Conseil, Expertise et formation</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>études et réalisation de projets de VRD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>études et réalisation de projets de VRD-consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
+        </is>
+      </c>
+    </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>études et réalisation de projets de VRD</t>
+          <t>ممرن سياقة</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
+          <t>تعليم الناس السياقة في مراكبهم الخاصة</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>études et réalisation de projets de VRD-consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
+          <t>ممرن سياقة-تعليم الناس السياقة في مراكبهم الخاصة</t>
         </is>
       </c>
     </row>
@@ -2919,275 +2919,231 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ممرن سياقة</t>
+          <t>مشرف على اعمال كل اعمال البناء</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>تعليم الناس السياقة في مراكبهم الخاصة</t>
+          <t>مشرف على اعمال البناء  للمنازل و المؤسسات</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ممرن سياقة-تعليم الناس السياقة في مراكبهم الخاصة</t>
+          <t>مشرف على اعمال كل اعمال البناء-مشرف على اعمال البناء  للمنازل و المؤسسات</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>مشرف على اعمال كل اعمال البناء</t>
+          <t>Formateur  autonome</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>مشرف على اعمال البناء  للمنازل و المؤسسات</t>
+          <t>Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>مشرف على اعمال كل اعمال البناء-مشرف على اعمال البناء  للمنازل و المؤسسات</t>
+          <t>Formateur  autonome-Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Formateur  autonome</t>
+          <t>Technicien smartphone</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
+          <t>تصليح الهواتف الذكية</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Formateur  autonome-Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
+          <t>Technicien smartphone-تصليح الهواتف الذكية</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Technicien smartphone</t>
+          <t>Conducteur de travaux</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>تصليح الهواتف الذكية</t>
+          <t>Conducteur de travaux</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Technicien smartphone-تصليح الهواتف الذكية</t>
+          <t>Conducteur de travaux-Conducteur de travaux</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conducteur de travaux</t>
+          <t>تركيب اجهزة التتبع والتموقع</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Conducteur de travaux</t>
+          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Conducteur de travaux-Conducteur de travaux</t>
+          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>maçon plambier</t>
+          <t>conducteur d'engins</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>maçon pour les méson individuel plombier ex</t>
+          <t>conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>maçon plambier-maçon pour les méson individuel plombier ex</t>
+          <t>conducteur d'engins-conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>تركيب اجهزة التتبع والتموقع</t>
+          <t>صانع محتى العاب . GAMER</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+          <t>صانع محتوى العاب . GAMER</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
+          <t>صانع محتى العاب . GAMER-صانع محتوى العاب . GAMER</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>conducteur d'engins</t>
+          <t>انتاج منزلي</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
+          <t>إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>conducteur d'engins-conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
+          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>صانع محتى العاب . GAMER</t>
+          <t>Relation et partenariats</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>صانع محتوى العاب . GAMER</t>
+          <t>Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>صانع محتى العاب . GAMER-صانع محتوى العاب . GAMER</t>
+          <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>انتاج منزلي</t>
+          <t>تركيب الألواح الجبسية والديكورات</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>إنتاج وبيع الألبسة في المنزل</t>
+          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
+          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Relation et partenariats</t>
+          <t>خدمات التوصيل</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Service relationnel et partenariats en entreprises</t>
+          <t>توصيل المشتريات للأشخاص</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
-        <is>
-          <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>تركيب الألواح الجبسية والديكورات</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Services à la personne</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>خدمات التوصيل</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>توصيل المشتريات للأشخاص</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
         <is>
           <t>خدمات التوصيل-توصيل المشتريات للأشخاص</t>
         </is>

--- a/data/post_valid/valid_suggested_activities.xlsx
+++ b/data/post_valid/valid_suggested_activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,63 +1607,61 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Trading / التداول</t>
+          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Trading / التداول-Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Services de loisirs et de récréation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>مجال الاعلام الآلي بمختلف الأنواع</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
+          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية-Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>Coiffure esthétique</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Services de loisirs et de récréation / خدمات الترفيه والتسلية-Services de loisirs et de récréation / خدمات الترفيه والتسلية</t>
+          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
     </row>
@@ -1675,54 +1673,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Coiffure esthétique</t>
+          <t>توصيل</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>توصيل طلبات مختلف الأنواع</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>توصيل-توصيل طلبات مختلف الأنواع</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>توصيل</t>
+          <t>mécatronique</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
-        <is>
-          <t>توصيل طلبات مختلف الأنواع</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>توصيل-توصيل طلبات مختلف الأنواع</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>mécatronique</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>نشاط يشمل كل من المهارات التالية_x000D_
  الاعلام الالي _x000D_
@@ -1734,7 +1710,7 @@
 في المنازل الدكية</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>mécatronique-نشاط يشمل كل من المهارات التالية_x000D_
  الاعلام الالي _x000D_
@@ -1747,6 +1723,28 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>في المجال النفسي والتربوي والمدرسي والتعليم</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم-في المجال النفسي والتربوي والمدرسي والتعليم</t>
+        </is>
+      </c>
+    </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
@@ -1755,165 +1753,165 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم</t>
+          <t>سياقة درجة نارية</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>في المجال النفسي والتربوي والمدرسي والتعليم</t>
+          <t>Easy &amp; Speed</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>استشارات نفسية وتربوية وتكوين وتدريب وتعليم-في المجال النفسي والتربوي والمدرسي والتعليم</t>
+          <t>سياقة درجة نارية-Easy &amp; Speed</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية</t>
+          <t>prestation de servieces et conseils aux organismes de formations</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Easy &amp; Speed</t>
+          <t>Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
+une plateforme de e learning et une gestion administratives</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية-Easy &amp; Speed</t>
+          <t>prestation de servieces et conseils aux organismes de formations-Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
+une plateforme de e learning et une gestion administratives</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>prestation de servieces et conseils aux organismes de formations</t>
+          <t>خياطة</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
-une plateforme de e learning et une gestion administratives</t>
+          <t>مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>prestation de servieces et conseils aux organismes de formations-Nous offrons des services de consultation spécialisés pour les organismes de formation, les aidant à optimiser leurs programmes, leurs processus et leur stratégie globale._x000D_
-une plateforme de e learning et une gestion administratives</t>
+          <t>خياطة-مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>خياطة</t>
+          <t>نجارة الاثاث</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
+          <t>صناعة غرف نوم واثاث منازل</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>خياطة-مشروع صغير في منزلي بماكينتي الخياطة التي عندي فانتج عباءات و بعدها اسعى للتسويق لمنتوجاتي عبر شبكات التواصل الاجتماعي</t>
+          <t>نجارة الاثاث-صناعة غرف نوم واثاث منازل</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Calligraphe</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Calligraphe-Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Services aux entreprises</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>نجارة الاثاث</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>صناعة غرف نوم واثاث منازل</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>نجارة الاثاث-صناعة غرف نوم واثاث منازل</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Calligraphe</t>
+          <t>تصليح العجلات</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
+          <t>تصليح العجلات</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Calligraphe-Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
+          <t>تصليح العجلات-تصليح العجلات</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>تصليح العجلات</t>
+          <t>Propriétaire Loueur de bien immobilier</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>تصليح العجلات</t>
+          <t>Loueur de biens immobiliers en étant propriétaire</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>تصليح العجلات-تصليح العجلات</t>
+          <t>Propriétaire Loueur de bien immobilier-Loueur de biens immobiliers en étant propriétaire</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Propriétaire Loueur de bien immobilier</t>
+          <t>تصنيع وتحويل الرخام</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Loueur de biens immobiliers en étant propriétaire</t>
+          <t>تصنيع وتحويل الرخام</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Propriétaire Loueur de bien immobilier-Loueur de biens immobiliers en étant propriétaire</t>
+          <t>تصنيع وتحويل الرخام-تصنيع وتحويل الرخام</t>
         </is>
       </c>
     </row>
@@ -1925,39 +1923,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>تصنيع وتحويل الرخام</t>
+          <t>الحجامة والتدليك</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>تصنيع وتحويل الرخام</t>
+          <t>الحجامة</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>تصنيع وتحويل الرخام-تصنيع وتحويل الرخام</t>
+          <t>الحجامة والتدليك-الحجامة</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>الحجامة والتدليك</t>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>الحجامة</t>
+          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>الحجامة والتدليك-الحجامة</t>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
         </is>
       </c>
     </row>
@@ -1969,39 +1967,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
+          <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
-        <is>
-          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>Travaux bâtiment_x000D_
 Travaux publics_x000D_
 Travaux maçonnerie</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Travaux génie civil Travaux bâtiment ou travaux maçonnerie-Travaux bâtiment_x000D_
 Travaux publics_x000D_
@@ -2009,70 +1985,92 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Guide touristique</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Guide accompagnateur</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Guide touristique-Guide accompagnateur</t>
+        </is>
+      </c>
+    </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Guide touristique</t>
+          <t>توصيل طلبيات الزباين</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Guide accompagnateur</t>
+          <t>ضمان توصيل طلبايت الزباين</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Guide touristique-Guide accompagnateur</t>
+          <t>توصيل طلبيات الزباين-ضمان توصيل طلبايت الزباين</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>توصيل طلبيات الزباين</t>
+          <t>agence de publicite</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
-        <is>
-          <t>ضمان توصيل طلبايت الزباين</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>توصيل طلبيات الزباين-ضمان توصيل طلبايت الزباين</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>agence de publicite</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>agence de publicite-poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>تصليح الهواتف النقالة</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>تصليح الهواتف النقالة-خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+        </is>
+      </c>
+    </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
@@ -2081,56 +2079,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>تصليح الهواتف النقالة</t>
+          <t>صنع الأطعمة و الأطباق المعدة</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+          <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
+أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>تصليح الهواتف النقالة-خدمات تصليح الهواتف النقالة الذكية خاصتا المصتعصية  في جميع  الاعطال سواء في الهارد وار او في السوفت وار</t>
+          <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
+أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>صنع الأطعمة و الأطباق المعدة</t>
+          <t>Contrôle et inspection CND</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
-        <is>
-          <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
-أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
-أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Contrôle et inspection CND</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>Inspection et contrôler en CND niv II_x000D_
 Courant de Foucault ECT_x000D_
@@ -2144,7 +2120,7 @@
 Merci</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Contrôle et inspection CND-Inspection et contrôler en CND niv II_x000D_
 Courant de Foucault ECT_x000D_
@@ -2159,25 +2135,47 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Prestations à domicile</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Maintenance électricité générale</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Maintenance électricité générale-صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
+        </is>
+      </c>
+    </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Maintenance électricité générale</t>
+          <t>Bureau d'affaire</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
+          <t>Bureau d'affaire</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Maintenance électricité générale-صيانة الأعطال الكهربائية المنزلية بشتى انواعها</t>
+          <t>Bureau d'affaire-Bureau d'affaire</t>
         </is>
       </c>
     </row>
@@ -2189,39 +2187,39 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Bureau d'affaire</t>
+          <t>Voyage et excursions  en ligne</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bureau d'affaire</t>
+          <t>Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Bureau d'affaire-Bureau d'affaire</t>
+          <t>Voyage et excursions  en ligne-Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Voyage et excursions  en ligne</t>
+          <t>Designer d'espace</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
+          <t>Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Voyage et excursions  en ligne-Programmer et vendre des excursions  et des voyages en ligne sur internet en collaboration  avec les agences de voyages</t>
+          <t>Designer d'espace-Concevoir les espaces et élaborer des plans détaillés et des maquettes en 3D à l'aide de logiciels de dessin. Évaluer les couts et les matériaux nécessaires. Préparer les plans et les détails d'exécution de l'aménagement final.</t>
         </is>
       </c>
     </row>
@@ -2544,44 +2542,44 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>متخصصة في القياس النفسي والتقويم التربوي</t>
+          <t>e-commerce</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
+          <t>Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>متخصصة في القياس النفسي والتقويم التربوي-تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
+          <t>e-commerce-Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Formateur QHSE</t>
+          <t>متخصصة في القياس النفسي والتقويم التربوي</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Formateur QHSE</t>
+          <t>تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Formateur QHSE-Formateur QHSE</t>
+          <t>متخصصة في القياس النفسي والتقويم التربوي-تشخيص صعوبات التعلم وعلاج صعوبات القراءة والكتابة</t>
         </is>
       </c>
     </row>
@@ -2593,17 +2591,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Consulting</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Consulting-Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+          <t>Formateur QHSE-Formateur QHSE</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2613,39 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Consulting-Consulting et creer les plans du projet autant que ingenieure des affaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Conseil, Expertise et formation</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>تجهيز أثاث المطابخ والمحلات</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>السلام عليك هذا النشاط العصري أصبح مطلوب فالوقت الحالي  _x000D_
 فكما نرى فالتصاميم المعاصرة للمنازل والمحلات نجد الكثير من الإبداع _x000D_
 فعليه يجب تنظيم هدا النشاط</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>تجهيز أثاث المطابخ والمحلات-السلام عليك هذا النشاط العصري أصبح مطلوب فالوقت الحالي  _x000D_
 فكما نرى فالتصاميم المعاصرة للمنازل والمحلات نجد الكثير من الإبداع _x000D_
@@ -2633,159 +2653,159 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Installateur sanitaire et thermique</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Installateur en matériel de plomberie et chauffage</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Installateur sanitaire et thermique-Installateur en matériel de plomberie et chauffage</t>
-        </is>
-      </c>
-    </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع</t>
+          <t>Installateur sanitaire et thermique</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
+          <t>Installateur en matériel de plomberie et chauffage</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع-إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
+          <t>Installateur sanitaire et thermique-Installateur en matériel de plomberie et chauffage</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Chef de projet construction</t>
+          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Chef de projet construction</t>
+          <t>إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Chef de projet construction-Chef de projet construction</t>
+          <t>مطال مرمم هياكل ودهان السيارات/التلحيم المتنوع-إصلاح وترميم هياكل السيارات والمركبات المختلفة والدهان...التلحيم بمختلف أنواعه الألواح المعدنية والأنابيب الغاز وكل ما يتعلق بالتلحيم</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Guide touristique</t>
+          <t>Chef de projet construction</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
+          <t>Chef de projet construction</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Guide touristique-انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
+          <t>Chef de projet construction-Chef de projet construction</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>محاسبة وجباية</t>
+          <t>Guide touristique</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+          <t>انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>محاسبة وجباية-خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+          <t>Guide touristique-انا نخدم محتوى على الإنستقرام و يجوني ناس حابين يحوسو معايا و نكون مرشد تاعهم ( تسما جاوني اونلاين ) و نكون مرشدهم</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>محاسبة وجباية</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>محاسبة وجباية-خدمات إدارية تخص المؤسسات ذات علاقة بالنشاط المحاسبي وشبه المحاسبي والجبائي وشبه الجبائي والتصريحات الإجتماعية الذي لا تتطلب إعتماد .... ومسك المحاسبة المبسطة للأشخاص الطبيعين الخاضعين للأنظمة الجبائية المبسطة والجزافية</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>Prestations à domicile</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>تركيب الهوائيات المقعرة montage parabole</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>اعمال التركيب _x000D_
 وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
 وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>Services de loisirs et de récréation</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>تصميم و صناعة ديكور الأفراح</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>تصميم وصناعة أكسسوارات الورد الإصطناعي _x000D_
 تصميم وصناعة المزهريات _x000D_
 صناعة الأرائك</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>تصميم و صناعة ديكور الأفراح-تصميم وصناعة أكسسوارات الورد الإصطناعي _x000D_
 تصميم وصناعة المزهريات _x000D_
@@ -2793,60 +2813,60 @@
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>Services de loisirs et de récréation</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>Guide touristique</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Guide touristique rondonee et bivouac</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Guide touristique-Guide touristique rondonee et bivouac</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي-تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>-Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -2856,7 +2876,7 @@
 -Conseiller les entrepreneurs sur la gestion du centre après ouverture</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux--Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -2867,47 +2887,25 @@
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Conseil, Expertise et formation</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>études et réalisation de projets de VRD</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>études et réalisation de projets de VRD-consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
-        </is>
-      </c>
-    </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ممرن سياقة</t>
+          <t>études et réalisation de projets de VRD</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>تعليم الناس السياقة في مراكبهم الخاصة</t>
+          <t>consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ممرن سياقة-تعليم الناس السياقة في مراكبهم الخاصة</t>
+          <t>études et réalisation de projets de VRD-consultant et contrôleur des études techniques et superviseur des travaux de réalisation de projets de voirie et réseaux divers  &amp; infrastructures routières</t>
         </is>
       </c>
     </row>
@@ -2919,189 +2917,189 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>مشرف على اعمال كل اعمال البناء</t>
+          <t>ممرن سياقة</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>مشرف على اعمال البناء  للمنازل و المؤسسات</t>
+          <t>تعليم الناس السياقة في مراكبهم الخاصة</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>مشرف على اعمال كل اعمال البناء-مشرف على اعمال البناء  للمنازل و المؤسسات</t>
+          <t>ممرن سياقة-تعليم الناس السياقة في مراكبهم الخاصة</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Formateur  autonome</t>
+          <t>مشرف على اعمال كل اعمال البناء</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
+          <t>مشرف على اعمال البناء  للمنازل و المؤسسات</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Formateur  autonome-Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
+          <t>مشرف على اعمال كل اعمال البناء-مشرف على اعمال البناء  للمنازل و المؤسسات</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Technicien smartphone</t>
+          <t>Formateur  autonome</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>تصليح الهواتف الذكية</t>
+          <t>Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Technicien smartphone-تصليح الهواتف الذكية</t>
+          <t>Formateur  autonome-Faire des formations dans les domaine technique,  reseaux, telecom, informatique.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Conseil, Expertise et formation</t>
+          <t>Services numériques et activités connexes</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Conducteur de travaux</t>
+          <t>Technicien smartphone</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Conducteur de travaux</t>
+          <t>تصليح الهواتف الذكية</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Conducteur de travaux-Conducteur de travaux</t>
+          <t>Technicien smartphone-تصليح الهواتف الذكية</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>تركيب اجهزة التتبع والتموقع</t>
+          <t>Conducteur de travaux</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+          <t>Conducteur de travaux</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
+          <t>Conducteur de travaux-Conducteur de travaux</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>تركيب اجهزة التتبع والتموقع</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>conducteur d'engins</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>conducteur d'engins-conducteur de plusieurs types de machines rétrochargeur, finicher goudron, clark, pelle hydrolique, niveleuse .....</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
         <is>
           <t>صانع محتى العاب . GAMER</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>صانع محتوى العاب . GAMER</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>صانع محتى العاب . GAMER-صانع محتوى العاب . GAMER</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Prestations à domicile</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>انتاج منزلي</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>إنتاج وبيع الألبسة في المنزل</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Relation et partenariats</t>
+          <t>انتاج منزلي</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Service relationnel et partenariats en entreprises</t>
+          <t>إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
+          <t>انتاج منزلي-إنتاج وبيع الألبسة في المنزل</t>
         </is>
       </c>
     </row>
@@ -3113,37 +3111,59 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>تركيب الألواح الجبسية والديكورات</t>
+          <t>Relation et partenariats</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+          <t>Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+          <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>تركيب الألواح الجبسية والديكورات</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>تركيب الألواح الجبسية والديكورات-تركيب الأسقف و الجدران بالألواح الجبسية  و المساعدة في تصميم الديكورات الداخلية</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Services à la personne</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>خدمات التوصيل</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>توصيل المشتريات للأشخاص</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>خدمات التوصيل-توصيل المشتريات للأشخاص</t>
         </is>
